--- a/iGEM simulation environment/Excel models/modelMsi.xlsx
+++ b/iGEM simulation environment/Excel models/modelMsi.xlsx
@@ -10463,7 +10463,7 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t>msi</t>
+    <t>Msi</t>
   </si>
   <si>
     <t>m.smithii</t>
@@ -18216,7 +18216,7 @@
         <v>1327</v>
       </c>
       <c r="G438" t="n" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H438" t="n" s="1">
         <v>1000.0</v>
@@ -18236,7 +18236,7 @@
         <v>1330</v>
       </c>
       <c r="G439" t="n" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H439" t="n" s="1">
         <v>1000.0</v>
@@ -18670,6 +18670,9 @@
       <c r="H460" t="n" s="1">
         <v>1000.0</v>
       </c>
+      <c r="I460" t="n" s="1">
+        <v>1.0</v>
+      </c>
       <c r="L460" t="s" s="1">
         <v>1399</v>
       </c>
@@ -18785,10 +18788,10 @@
         <v>1417</v>
       </c>
       <c r="G466" t="n" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H466" t="n" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L466" t="s" s="1">
         <v>1324</v>
@@ -18825,10 +18828,10 @@
         <v>1423</v>
       </c>
       <c r="G468" t="n" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H468" t="n" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L468" t="s" s="1">
         <v>1324</v>
